--- a/PersonInfoSQLServerConsoleApp/PersonInfoConsoleApp/PersonInfoConsoleApp/full_name.xlsx
+++ b/PersonInfoSQLServerConsoleApp/PersonInfoConsoleApp/PersonInfoConsoleApp/full_name.xlsx
@@ -20,7 +20,7 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>zxcv</t>
+    <t>zzz</t>
   </si>
 </sst>
 </file>
